--- a/data/trans_orig/IP25A_1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP25A_1_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B67414EF-7EDA-4128-B287-39E149EEFCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BF33A61-B567-4FAC-BF93-3A73026FF58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6DE65C7F-E239-4378-ADE7-950D43BA0BCC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{31249551-D7C4-48BF-ACA4-7B5656D4CA4E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="93">
   <si>
     <t>Menores según si dedican más de dos horas a aparatos electrónicos entre semana en 2023 (Tasa respuesta: 98,28%)</t>
   </si>
@@ -101,55 +101,55 @@
     <t>22,1%</t>
   </si>
   <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
   </si>
   <si>
     <t>32,2%</t>
   </si>
   <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
   </si>
   <si>
     <t>26,7%</t>
   </si>
   <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
   </si>
   <si>
     <t>77,9%</t>
   </si>
   <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
   </si>
   <si>
     <t>67,8%</t>
   </si>
   <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
   </si>
   <si>
     <t>73,3%</t>
   </si>
   <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -158,55 +158,55 @@
     <t>26,07%</t>
   </si>
   <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
   </si>
   <si>
     <t>23,88%</t>
   </si>
   <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
   </si>
   <si>
     <t>25,03%</t>
   </si>
   <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
   </si>
   <si>
     <t>73,93%</t>
   </si>
   <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
   </si>
   <si>
     <t>76,12%</t>
   </si>
   <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
   </si>
   <si>
     <t>74,97%</t>
   </si>
   <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -215,25 +215,25 @@
     <t>16,95%</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
   </si>
   <si>
     <t>15,65%</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
   </si>
   <si>
     <t>16,35%</t>
   </si>
   <si>
-    <t>13,0%</t>
+    <t>13,04%</t>
   </si>
   <si>
     <t>20,45%</t>
@@ -242,19 +242,19 @@
     <t>83,05%</t>
   </si>
   <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
   </si>
   <si>
     <t>84,35%</t>
   </si>
   <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
   </si>
   <si>
     <t>83,65%</t>
@@ -263,61 +263,55 @@
     <t>79,55%</t>
   </si>
   <si>
-    <t>87,0%</t>
+    <t>86,96%</t>
   </si>
   <si>
     <t>23,55%</t>
   </si>
   <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
   </si>
   <si>
     <t>22,55%</t>
   </si>
   <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
   </si>
   <si>
     <t>23,08%</t>
   </si>
   <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
+    <t>25,59%</t>
   </si>
   <si>
     <t>76,45%</t>
   </si>
   <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
   </si>
   <si>
     <t>77,45%</t>
   </si>
   <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
   </si>
   <si>
     <t>76,92%</t>
   </si>
   <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
+    <t>74,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -732,7 +726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F895F79-7EC5-4AF7-B9A5-FFC835C7FF5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D39FA1-1FEB-45F0-867B-44EAD5D1698D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1503,10 +1497,10 @@
         <v>82</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1521,13 +1515,13 @@
         <v>549842</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>737</v>
@@ -1536,13 +1530,13 @@
         <v>494407</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>1506</v>
@@ -1551,13 +1545,13 @@
         <v>1044248</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1613,7 +1607,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP25A_1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP25A_1_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BF33A61-B567-4FAC-BF93-3A73026FF58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBAFC0CF-8C55-4964-B60C-E40A307829F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{31249551-D7C4-48BF-ACA4-7B5656D4CA4E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D92E22D7-42C4-4848-9F51-954F55F02EF3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Menores según si dedican más de dos horas a aparatos electrónicos entre semana en 2023 (Tasa respuesta: 98,28%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,253 +65,238 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>16,95%</t>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
   </si>
   <si>
     <t>12,27%</t>
   </si>
   <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
   </si>
   <si>
     <t>13,04%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
   </si>
   <si>
     <t>87,73%</t>
   </si>
   <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
   </si>
   <si>
     <t>86,96%</t>
   </si>
   <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -726,8 +711,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D39FA1-1FEB-45F0-867B-44EAD5D1698D}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AF0FBA-A484-4B29-B15F-3EC02F1230F4}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -844,96 +829,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="D4" s="7">
+        <v>17572</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>13762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>31334</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="D5" s="7">
+        <v>34711</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>47664</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>82375</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -942,151 +931,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="D6" s="7">
+        <v>52283</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>61426</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>113709</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="D7" s="7">
-        <v>12863</v>
+        <v>119842</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="I7" s="7">
-        <v>15700</v>
+        <v>139588</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>37</v>
+        <v>277</v>
       </c>
       <c r="N7" s="7">
-        <v>28563</v>
+        <v>259430</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>64</v>
+        <v>496</v>
       </c>
       <c r="D8" s="7">
-        <v>45334</v>
+        <v>330509</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
+        <v>506</v>
+      </c>
+      <c r="I8" s="7">
+        <v>372544</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="7">
-        <v>33064</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="M8" s="7">
-        <v>110</v>
+        <v>1002</v>
       </c>
       <c r="N8" s="7">
-        <v>78399</v>
+        <v>703053</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1095,153 +1086,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>82</v>
+        <v>628</v>
       </c>
       <c r="D9" s="7">
-        <v>58197</v>
+        <v>450351</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>65</v>
+        <v>651</v>
       </c>
       <c r="I9" s="7">
-        <v>48764</v>
+        <v>512132</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>147</v>
+        <v>1279</v>
       </c>
       <c r="N9" s="7">
-        <v>106962</v>
+        <v>962483</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>127276</v>
+        <v>23118</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="I10" s="7">
-        <v>105009</v>
+        <v>30530</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>277</v>
+        <v>67</v>
       </c>
       <c r="N10" s="7">
-        <v>232285</v>
+        <v>53648</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>506</v>
+        <v>194</v>
       </c>
       <c r="D11" s="7">
-        <v>360993</v>
+        <v>123825</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>496</v>
+        <v>199</v>
       </c>
       <c r="I11" s="7">
-        <v>334705</v>
+        <v>150972</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1002</v>
+        <v>393</v>
       </c>
       <c r="N11" s="7">
-        <v>695698</v>
+        <v>274797</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1250,153 +1241,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>651</v>
+        <v>225</v>
       </c>
       <c r="D12" s="7">
-        <v>488269</v>
+        <v>146943</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>628</v>
+        <v>235</v>
       </c>
       <c r="I12" s="7">
-        <v>439714</v>
+        <v>181502</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1279</v>
+        <v>460</v>
       </c>
       <c r="N12" s="7">
-        <v>927983</v>
+        <v>328445</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="D13" s="7">
-        <v>29283</v>
+        <v>160532</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="I13" s="7">
-        <v>23275</v>
+        <v>183880</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>67</v>
+        <v>381</v>
       </c>
       <c r="N13" s="7">
-        <v>52558</v>
+        <v>344412</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>199</v>
+        <v>736</v>
       </c>
       <c r="D14" s="7">
-        <v>143513</v>
+        <v>489045</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>194</v>
+        <v>769</v>
       </c>
       <c r="I14" s="7">
-        <v>125467</v>
+        <v>571180</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>393</v>
+        <v>1505</v>
       </c>
       <c r="N14" s="7">
-        <v>268980</v>
+        <v>1060226</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1405,216 +1396,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>235</v>
+        <v>918</v>
       </c>
       <c r="D15" s="7">
-        <v>172796</v>
+        <v>649577</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>968</v>
       </c>
       <c r="I15" s="7">
-        <v>148742</v>
+        <v>755060</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>460</v>
+        <v>1886</v>
       </c>
       <c r="N15" s="7">
-        <v>321538</v>
+        <v>1404638</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>199</v>
-      </c>
-      <c r="D16" s="7">
-        <v>169421</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>182</v>
-      </c>
-      <c r="I16" s="7">
-        <v>143984</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>381</v>
-      </c>
-      <c r="N16" s="7">
-        <v>313406</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>769</v>
-      </c>
-      <c r="D17" s="7">
-        <v>549842</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="7">
-        <v>737</v>
-      </c>
-      <c r="I17" s="7">
-        <v>494407</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1506</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1044248</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>968</v>
-      </c>
-      <c r="D18" s="7">
-        <v>719263</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>919</v>
-      </c>
-      <c r="I18" s="7">
-        <v>638391</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1887</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1357654</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>92</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
